--- a/casedata/GovernmentCaseData.xlsx
+++ b/casedata/GovernmentCaseData.xlsx
@@ -1,145 +1,457 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23415"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\WenJiang_selenium\casedata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8AF02-5C88-4A1D-8459-8D22198928EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级模块</t>
+  </si>
+  <si>
+    <t>二级模块</t>
   </si>
   <si>
     <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
   </si>
   <si>
     <t>登录账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>输入值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[1]/div/div/div/div[2]/div/form/div[1]/div/div[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[1]/div/div/div/div[2]/div/form/div[2]/div/div[1]/input</t>
   </si>
   <si>
     <t>Aa123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xpath操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/div[1]/div/div/div/div[2]/div/form/div[4]/div/button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预计结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>温江智慧企业服务管理后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/div[1]/div/div/div/div[2]/div/form/div[1]/div/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/div[1]/div/div/div/div[2]/div/form/div[2]/div/div[1]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工作台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>企业反馈述求统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检查查询功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div/div/div[2]/div/div[2]/div[1]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三只松鼠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div/div/div[2]/div/div[3]/div/div/button[1]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哈哈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作看板</t>
+  </si>
+  <si>
+    <t>通过去处理进入到处理界面</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[1]/ul/li[2]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[1]/div/ul/li[1]/div/div[2]/div/button/span/span</t>
+  </si>
+  <si>
+    <t>详情</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,28 +459,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -217,7 +815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -252,7 +850,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -426,41 +1024,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="7" max="7" width="16.375" customWidth="1"/>
     <col min="12" max="12" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -473,53 +1066,53 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>18227101093</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -528,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -537,20 +1130,52 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/casedata/GovernmentCaseData.xlsx
+++ b/casedata/GovernmentCaseData.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="188">
   <si>
     <t>用例编号</t>
   </si>
   <si>
+    <t>是否执行</t>
+  </si>
+  <si>
     <t>一级模块</t>
   </si>
   <si>
@@ -28,70 +31,553 @@
     <t>用例名称</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>登录账号</t>
+    <t>是</t>
+  </si>
+  <si>
+    <t>工作台</t>
+  </si>
+  <si>
+    <t>企业反馈诉求统计</t>
+  </si>
+  <si>
+    <t>通过名字搜索企业</t>
+  </si>
+  <si>
+    <t>xpath操作</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[1]/ul/li[1]/span</t>
   </si>
   <si>
     <t>输入值</t>
   </si>
   <si>
-    <t>//*[@id="app"]/div/div[1]/div/div/div/div[2]/div/form/div[1]/div/div[1]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/div[1]/div/div/div/div[2]/div/form/div[2]/div/div[1]/input</t>
-  </si>
-  <si>
-    <t>Aa123456</t>
-  </si>
-  <si>
-    <t>xpath操作</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/div[1]/div/div/div/div[2]/div/form/div[4]/div/button</t>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div/div/div[2]/div/div[2]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>成都卓胜特维电子科技有限公司</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div/div/div[2]/div/div[2]/div[2]/button/span</t>
   </si>
   <si>
     <t>预计结果</t>
   </si>
   <si>
-    <t>温江智慧企业服务管理后台</t>
-  </si>
-  <si>
-    <t>工作台</t>
-  </si>
-  <si>
-    <t>企业反馈述求统计</t>
-  </si>
-  <si>
-    <t>检查查询功能</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div/div/div[2]/div/div[2]/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>三只松鼠</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div/div/div[2]/div/div[3]/div/div/button[1]/span</t>
-  </si>
-  <si>
-    <t>哈哈</t>
-  </si>
-  <si>
     <t>工作看板</t>
   </si>
   <si>
-    <t>通过去处理进入到处理界面</t>
+    <t>通过工作看板进入到处理事项界面</t>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[1]/ul/li[2]/span</t>
   </si>
   <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[1]/div/ul/li[1]/div/div[2]/div/button/span/span</t>
-  </si>
-  <si>
-    <t>详情</t>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[1]/div/ul/li/div/div[2]/div/button/span/span</t>
+  </si>
+  <si>
+    <t>处理部门</t>
+  </si>
+  <si>
+    <t>统计看板</t>
+  </si>
+  <si>
+    <t>搜索统计数据</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[1]/ul/li[3]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div/div/div[1]/ul/li[4]</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div/div/div[3]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>搭建文体旅营销平台</t>
+  </si>
+  <si>
+    <t>成都市温江区关于应对新冠肺炎疫情缓解</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>诉求统计数据分析</t>
+  </si>
+  <si>
+    <t>通过时间筛选数据</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[1]/ul/li[4]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[1]/ul/li[5]/div/div[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[1]/ul/li[5]/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>企业无述求</t>
+  </si>
+  <si>
+    <t>政策数据爬取</t>
+  </si>
+  <si>
+    <t>政策数据</t>
+  </si>
+  <si>
+    <t>搜索筛选政策数据</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[2]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[2]/ul/li/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[1]/div[2]/div/input</t>
+  </si>
+  <si>
+    <t>20200907002205</t>
+  </si>
+  <si>
+    <t>政策文件管理</t>
+  </si>
+  <si>
+    <t>宏观政策</t>
+  </si>
+  <si>
+    <t>待处理界面编辑政策</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[3]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[3]/ul/li[1]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="pane-first"]/div/div[3]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/button[1]/span</t>
+  </si>
+  <si>
+    <t>编辑宏观政策</t>
+  </si>
+  <si>
+    <t>已处理界面新增宏观政策</t>
+  </si>
+  <si>
+    <t>//*[@id="tab-second"]</t>
+  </si>
+  <si>
+    <t>//*[@id="pane-second"]/div/div[3]/div[1]/button[1]/span</t>
+  </si>
+  <si>
+    <t>新增宏观政策</t>
+  </si>
+  <si>
+    <t>扶持政策</t>
+  </si>
+  <si>
+    <t>待处理界面编辑扶持政策</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[3]/ul/li[2]/span</t>
+  </si>
+  <si>
+    <t>编辑扶持政策</t>
+  </si>
+  <si>
+    <t>已处理界面新增扶持政策</t>
+  </si>
+  <si>
+    <t>新增扶持政策</t>
+  </si>
+  <si>
+    <t>实施细则</t>
+  </si>
+  <si>
+    <t>待处理界面编辑实施细则</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[3]/ul/li[3]/span</t>
+  </si>
+  <si>
+    <t>编辑实施细则</t>
+  </si>
+  <si>
+    <t>已处理界面新增实施细则</t>
+  </si>
+  <si>
+    <t>新增实施细则</t>
+  </si>
+  <si>
+    <t>政策条款管理</t>
+  </si>
+  <si>
+    <t>扶持条款管理</t>
+  </si>
+  <si>
+    <t>待处理界面编辑扶持条款</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[4]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[4]/ul/li[1]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="pane-1"]/div/div[2]/div/div[3]/table/tbody/tr[1]/td[6]/div/button[1]/span</t>
+  </si>
+  <si>
+    <t>编辑扶持条款</t>
+  </si>
+  <si>
+    <t>已处理界面编辑扶持条款</t>
+  </si>
+  <si>
+    <t>//*[@id="tab-2"]</t>
+  </si>
+  <si>
+    <t>//*[@id="pane-2"]/div/div[2]/div/div[3]/table/tbody/tr/td[7]/div/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>细则条款管理</t>
+  </si>
+  <si>
+    <t>待处理界面编辑细则条款</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[4]/ul/li[2]/span</t>
+  </si>
+  <si>
+    <t>编辑细则条款</t>
+  </si>
+  <si>
+    <t>已处理界面编辑细则条款</t>
+  </si>
+  <si>
+    <t>通知管理公告</t>
+  </si>
+  <si>
+    <t>申报通知公告</t>
+  </si>
+  <si>
+    <t>待处理界面编辑申报通知公告</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[5]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[5]/ul/li[1]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="pane-tab1"]/div/div[3]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>新增申报通知</t>
+  </si>
+  <si>
+    <t>已处理界面新增申报通知公告</t>
+  </si>
+  <si>
+    <t>//*[@id="tab-tab2"]</t>
+  </si>
+  <si>
+    <t>//*[@id="pane-tab2"]/div/div[2]/div[1]/button[1]/span</t>
+  </si>
+  <si>
+    <t>通知公告</t>
+  </si>
+  <si>
+    <t>待处理界面编辑通知公告</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[5]/ul/li[2]/span</t>
+  </si>
+  <si>
+    <t>新增通知公告</t>
+  </si>
+  <si>
+    <t>已处理界面新增通知公告</t>
+  </si>
+  <si>
+    <t>//*[@id="pane-tab2"]/div/div[2]/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>项目申报列表</t>
+  </si>
+  <si>
+    <t>新增项目申报</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[6]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[6]/ul/li/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/button[1]/span</t>
+  </si>
+  <si>
+    <t>编辑项目申报</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[3]/div[1]/div[3]/table/tbody/tr[1]/td[10]/div/div[2]/button/span</t>
+  </si>
+  <si>
+    <t>搜索项目申报</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[6]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[6]/button</t>
+  </si>
+  <si>
+    <t>关于组织开展成都市温江区统筹抓好疫情防控奋力实现2020年经济社会发展目标的政策措施（第四十五批）项目申报通知</t>
+  </si>
+  <si>
+    <t>申报申请管理</t>
+  </si>
+  <si>
+    <t>申报记录列表</t>
+  </si>
+  <si>
+    <t>查看申报记录详情</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[7]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[7]/ul/li[2]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[1]/div[2]/div[1]/input</t>
+  </si>
+  <si>
+    <t>给予行业组织复工稳产奖励</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[5]/div[1]/div[4]/div[2]/table/tbody/tr[1]/td[13]/div/button/span</t>
+  </si>
+  <si>
+    <t>发票补录管理</t>
+  </si>
+  <si>
+    <t>查看发票补录详情</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[7]/ul/li[3]</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>成都娃哈哈昌盛食品有限公司</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[1]/div/div/button</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[3]/div[1]/div[3]/table/tbody/tr[1]/td[9]/div/button[1]/span</t>
+  </si>
+  <si>
+    <t>发票补录详情</t>
+  </si>
+  <si>
+    <t>编辑补录项目</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[3]/div[1]/div[3]/table/tbody/tr[1]/td[9]/div/button[2]/span</t>
+  </si>
+  <si>
+    <t>企业名称</t>
+  </si>
+  <si>
+    <t>补充资料记录</t>
+  </si>
+  <si>
+    <t>查看补充资料</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[7]/ul/li[4]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[1]/div[3]/table/tbody/tr[1]/td[10]/div/button/span</t>
+  </si>
+  <si>
+    <t>补充资料记录详情</t>
+  </si>
+  <si>
+    <t>申报资料订正记录</t>
+  </si>
+  <si>
+    <t>查看申报资料订正记录详情</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[7]/ul/li[5]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[1]/div[2]/div/input</t>
+  </si>
+  <si>
+    <t>成都凯丽印象酒店有限公司</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[1]/div[2]/button/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[1]/div[3]/table/tbody/tr[1]/td[9]/div/div[5]/button/span</t>
+  </si>
+  <si>
+    <t>订正记录详情</t>
+  </si>
+  <si>
+    <t>企业用户管理</t>
+  </si>
+  <si>
+    <t>企业列表</t>
+  </si>
+  <si>
+    <t>搜索查看企业用户详情</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[8]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[8]/ul/li/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[3]/div[1]/div[5]/div[2]/table/tbody/tr[4]/td[11]/div/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>中介服务</t>
+  </si>
+  <si>
+    <t>中介机构服务管理</t>
+  </si>
+  <si>
+    <t>查看服务机构</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[9]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[9]/ul/li[1]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[4]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[9]/div/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>机构名称</t>
+  </si>
+  <si>
+    <t>编辑服务机构</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[4]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[9]/div/div[2]/button/span</t>
+  </si>
+  <si>
+    <t>中介机构名称</t>
+  </si>
+  <si>
+    <t>评价服务机构</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[4]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[9]/div/div[3]/button/span</t>
+  </si>
+  <si>
+    <t>综合评价</t>
+  </si>
+  <si>
+    <t>中介机构列表</t>
+  </si>
+  <si>
+    <t>搜索中介机构</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[9]/ul/li[2]/span</t>
+  </si>
+  <si>
+    <t>成都钦鼎科技有限公司</t>
+  </si>
+  <si>
+    <t>查看中介机构</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[3]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[8]/div/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>编辑中介机构</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[3]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[8]/div/div[2]/button/span</t>
+  </si>
+  <si>
+    <t>单位名称</t>
+  </si>
+  <si>
+    <t>通知列表</t>
+  </si>
+  <si>
+    <t>搜索通知公告</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[9]/ul/li[6]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[1]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>关于完善入驻温江区智慧企业服务平台中介服务超市企业信息的通知</t>
+  </si>
+  <si>
+    <t>中介服务简介查看</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[2]/div/button[1]/span</t>
+  </si>
+  <si>
+    <t>中介服务简介</t>
+  </si>
+  <si>
+    <t>入驻流程查看</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[2]/div/button[2]/span</t>
+  </si>
+  <si>
+    <t>入驻流程</t>
+  </si>
+  <si>
+    <t>评价机制查看</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[2]/div/button[3]/span</t>
+  </si>
+  <si>
+    <t>通知正文</t>
+  </si>
+  <si>
+    <t>服务监督查看</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[2]/div/button[4]/span</t>
+  </si>
+  <si>
+    <t>服务监督</t>
+  </si>
+  <si>
+    <t>新增通知</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[2]/div/button[5]/span</t>
   </si>
 </sst>
 </file>
@@ -99,8 +585,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -113,6 +599,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -120,40 +607,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +644,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +666,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +674,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -204,19 +696,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,32 +719,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,7 +752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,37 +782,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +812,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,43 +890,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,55 +914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +946,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +985,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,35 +1025,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +1049,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,141 +1061,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,19 +1518,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="12" max="12" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1548,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1065,43 +1560,47 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>18227101093</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1109,69 +1608,1688 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3">
+        <v>44136</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="3">
+        <v>44166</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
         <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>130</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>137</v>
+      </c>
+      <c r="O28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>145</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>155</v>
+      </c>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>158</v>
+      </c>
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" t="s">
+        <v>163</v>
+      </c>
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L36" t="s">
+        <v>173</v>
+      </c>
+      <c r="M36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>175</v>
+      </c>
+      <c r="L37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" t="s">
+        <v>178</v>
+      </c>
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>184</v>
+      </c>
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>171</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" t="s">
+        <v>187</v>
+      </c>
+      <c r="L41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/casedata/GovernmentCaseData.xlsx
+++ b/casedata/GovernmentCaseData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\WenJiang_selenium\casedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\NetSarang Computer\6\Xftp\Temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEFCEAC-15BD-453E-A2AD-8D4A470BC9AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F85836-C15A-4622-9B46-13396BE13566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="367">
   <si>
     <t>用例编号</t>
   </si>
@@ -1197,6 +1197,10 @@
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[2]/div[2]/button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1570,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B20"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2438,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C21" t="s">
         <v>92</v>
@@ -2479,7 +2483,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
         <v>92</v>
@@ -2520,7 +2524,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s">
         <v>92</v>
@@ -2567,7 +2571,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
         <v>105</v>
@@ -2623,7 +2627,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
@@ -2679,7 +2683,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C26" t="s">
         <v>105</v>
@@ -2720,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
         <v>105</v>
@@ -2761,7 +2765,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
         <v>105</v>
@@ -2817,7 +2821,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s">
         <v>135</v>
@@ -2858,7 +2862,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C30" t="s">
         <v>142</v>
@@ -2899,7 +2903,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C31" t="s">
         <v>142</v>
@@ -2940,7 +2944,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s">
         <v>142</v>
@@ -2981,7 +2985,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C33" t="s">
         <v>142</v>
@@ -3025,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
         <v>142</v>
@@ -3066,7 +3070,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C35" t="s">
         <v>142</v>
@@ -3107,7 +3111,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C36" t="s">
         <v>142</v>
@@ -3151,7 +3155,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
         <v>142</v>
@@ -3192,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C38" t="s">
         <v>142</v>
@@ -3233,7 +3237,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s">
         <v>142</v>
@@ -3274,7 +3278,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C40" t="s">
         <v>142</v>
@@ -3315,7 +3319,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C41" t="s">
         <v>142</v>
@@ -3356,7 +3360,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C42" t="s">
         <v>183</v>
@@ -3406,7 +3410,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C43" t="s">
         <v>183</v>
@@ -3447,7 +3451,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s">
         <v>183</v>
@@ -3488,7 +3492,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
         <v>183</v>
@@ -3529,7 +3533,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C46" t="s">
         <v>183</v>
@@ -3576,7 +3580,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s">
         <v>200</v>
@@ -3620,7 +3624,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s">
         <v>200</v>
@@ -3661,7 +3665,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C49" t="s">
         <v>200</v>
@@ -3702,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C50" t="s">
         <v>211</v>
@@ -3743,7 +3747,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s">
         <v>211</v>
@@ -3793,7 +3797,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s">
         <v>211</v>
@@ -3834,7 +3838,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>211</v>
@@ -3890,7 +3894,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C54" t="s">
         <v>211</v>
@@ -3940,7 +3944,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s">
         <v>211</v>
@@ -3981,7 +3985,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C56" t="s">
         <v>211</v>
@@ -4022,7 +4026,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C57" t="s">
         <v>211</v>
@@ -4063,7 +4067,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
         <v>241</v>
@@ -4113,7 +4117,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C59" t="s">
         <v>241</v>
@@ -4154,7 +4158,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
         <v>241</v>
@@ -4201,7 +4205,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
         <v>241</v>
@@ -4242,7 +4246,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
         <v>241</v>
@@ -4277,7 +4281,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C63" t="s">
         <v>241</v>
@@ -4312,7 +4316,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C64" t="s">
         <v>241</v>
@@ -4347,7 +4351,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C65" t="s">
         <v>241</v>
@@ -4397,7 +4401,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
         <v>241</v>
@@ -4438,7 +4442,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C67" t="s">
         <v>241</v>
@@ -4488,7 +4492,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C68" t="s">
         <v>241</v>
@@ -4530,7 +4534,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
         <v>241</v>
@@ -4571,7 +4575,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
         <v>241</v>
@@ -4612,7 +4616,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>290</v>
@@ -4662,7 +4666,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>290</v>
@@ -4703,7 +4707,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>290</v>
@@ -4759,7 +4763,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>290</v>
@@ -4815,7 +4819,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>290</v>
@@ -4927,7 +4931,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>290</v>
@@ -4968,7 +4972,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>325</v>
@@ -5009,7 +5013,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>325</v>
@@ -5050,7 +5054,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>325</v>
@@ -5091,7 +5095,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>325</v>
@@ -5141,7 +5145,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>325</v>
@@ -5191,7 +5195,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>325</v>
@@ -5232,7 +5236,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>325</v>
@@ -5273,7 +5277,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>325</v>

--- a/casedata/GovernmentCaseData.xlsx
+++ b/casedata/GovernmentCaseData.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\NetSarang Computer\6\Xftp\Temporary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F85836-C15A-4622-9B46-13396BE13566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$115</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="459">
   <si>
     <t>用例编号</t>
   </si>
   <si>
+    <t>执行结果</t>
+  </si>
+  <si>
     <t>是否执行</t>
   </si>
   <si>
@@ -37,6 +37,9 @@
     <t>用例名称</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>工作台</t>
   </si>
   <si>
@@ -76,6 +79,12 @@
     <t>//*[@id="app"]/div/section/div/ul/li[1]/ul/li[2]/span</t>
   </si>
   <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[1]/div/ul/li[1]/div/div[2]/div/button/span/span</t>
+  </si>
+  <si>
+    <t>成都市温江区工业企业基础调查</t>
+  </si>
+  <si>
     <t>统计看板</t>
   </si>
   <si>
@@ -94,9 +103,15 @@
     <t>新签约并开工建设项目奖励</t>
   </si>
   <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div/div/div[3]/div[1]/button/span</t>
+  </si>
+  <si>
     <t>成都市温江区统筹抓好疫情防控奋力实现2020年经济社会发展目标的政策措施</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>诉求统计数据分析</t>
   </si>
   <si>
@@ -355,6 +370,18 @@
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[1]/div[2]/div[1]/input</t>
   </si>
   <si>
+    <t>给予行业组织复工稳产奖励</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[1]/div[2]/div[2]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[5]/div[1]/div[4]/div[2]/table/tbody/tr[1]/td[14]/div/button/span</t>
+  </si>
+  <si>
+    <t>温江区产业扶持专项资金申请表</t>
+  </si>
+  <si>
     <t>发票补录管理</t>
   </si>
   <si>
@@ -788,91 +815,69 @@
   </si>
   <si>
     <t>功能说明配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看功能说明配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[13]/ul/li[2]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作流程配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看操作流程配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[13]/ul/li[3]/span</t>
   </si>
   <si>
     <t>免责申明配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看免责申明配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[13]/ul/li[4]/span</t>
   </si>
   <si>
-    <t>企业列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索筛选企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[13]/ul/li[5]/span</t>
   </si>
   <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[1]/div[4]/div/input</t>
+  </si>
+  <si>
     <t>成都秉信环保包装有限公司</t>
   </si>
   <si>
-    <t>xpath操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[1]/div[5]/button/span</t>
   </si>
   <si>
     <t>黄贵勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编辑企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[3]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[9]/div/div/div[1]/button/span</t>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都康景生物科技有限公司</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[3]/div[1]/div[5]/div[2]/table/tbody/tr/td[9]/div/div/div[1]/button/span</t>
   </si>
   <si>
     <t>搜索供需对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[13]/ul/li[6]/span</t>
   </si>
   <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div/div[5]/div/input</t>
+  </si>
+  <si>
     <t>成都市温江区涌泉街道办事处购买家具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div/div[5]/div/input</t>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div/div[5]/button/span</t>
@@ -882,14 +887,12 @@
   </si>
   <si>
     <t>新增供需对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[1]/button/span</t>
   </si>
   <si>
     <t>编辑供需对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[2]/div[1]/div[3]/table/tbody/tr[1]/td[11]/div/div/button[1]/span</t>
@@ -899,30 +902,21 @@
   </si>
   <si>
     <t>新增名优产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[13]/ul/li[7]/span</t>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[1]/button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户反馈管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>诉求反馈问题清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索诉求反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[15]/div/span</t>
@@ -931,10 +925,6 @@
     <t>//*[@id="app"]/div/section/div/ul/li[15]/ul/li[1]/span</t>
   </si>
   <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[1]/div[4]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[1]/div[2]/div[1]/div/input</t>
   </si>
   <si>
@@ -945,70 +935,66 @@
   </si>
   <si>
     <t>邹世明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新增企业诉求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[2]/div/button/span</t>
   </si>
   <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[2]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立即创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑企业诉求</t>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[5]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div[1]/button/span</t>
   </si>
   <si>
-    <t>2021-3084</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑台账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑企业诉求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[5]/div[1]/div[5]/div[2]/table/tbody/tr/td[10]/div/div[2]/button</t>
   </si>
   <si>
     <t>保存编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[2]/div[5]/div[1]/div[5]/div[2]/table/tbody/tr/td[10]/div/div[4]/button/span</t>
   </si>
   <si>
     <t>问题详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>诉求反馈台账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看诉求反馈台账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[15]/ul/li[2]/span</t>
   </si>
   <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[2]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>2021-2848-1</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[2]/div[2]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[5]/div[1]/div[5]/div[2]/table/tbody/tr/td[20]/div/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>台账详情</t>
+  </si>
+  <si>
     <t>反馈问题类型设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新增反馈问题类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[15]/ul/li[4]/span</t>
@@ -1017,198 +1003,410 @@
     <t>新增问题类型</t>
   </si>
   <si>
-    <t>给予行业组织复工稳产奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[1]/div[2]/div[2]/button</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[5]/div[1]/div[4]/div[2]/table/tbody/tr[1]/td[14]/div/button/span</t>
-  </si>
-  <si>
-    <t>预计结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温江区产业扶持专项资金申请表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>用地填报管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汇总统计（区标）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据列表点击规上企业，数据将自动变更为规上企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[16]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[16]/ul/li[1]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[1]/div[1]/div/div/div/div[1]/p[2]</t>
+  </si>
+  <si>
+    <t>中钞长城贵金属有限公司</t>
   </si>
   <si>
     <t>数据列表点击规下企业，数据将自动变更为规下企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/div/ul/li[16]/div/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/div/ul/li[16]/ul/li[1]/span</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[1]/div[1]/div/div/div/div[1]/p[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中钞长城贵金属有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[1]/div[1]/div/div/div/div[2]/p[2]</t>
   </si>
   <si>
-    <t>成都亿胜医疗设备有限公司</t>
+    <t>成都臻力鑫劳务有限公司</t>
   </si>
   <si>
     <t>查看用地填报详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[6]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[18]/div/button/span</t>
-  </si>
-  <si>
-    <t>成都市温江区工业企业基础调查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[6]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[22]/div/button/span</t>
   </si>
   <si>
     <t>通过信用代码搜索企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[2]/div[1]/div/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[3]/div[2]/div[1]/div/div/input</t>
   </si>
   <si>
     <t>91510115727435347M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[3]/div[2]/div[1]/div/button/span</t>
   </si>
   <si>
     <t>汇总统计（省标）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//*[@id="app"]/div/section/div/ul/li[16]/ul/li[2]/span</t>
   </si>
   <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[4]/div[1]/div[2]/input</t>
-  </si>
-  <si>
-    <t>成都市温江区兴能天然气有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91510115202459776W</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[4]/div[2]/button[1]/span</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[2]/div[1]/div/button/span</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[7]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[17]/div/button/span</t>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[2]/div[2]/div[1]/div/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[5]/div[1]/div[5]/div[2]/table/tbody/tr/td[18]/div/button/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[5]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[18]/div/button/span</t>
   </si>
   <si>
     <t>用地填报记录详情</t>
   </si>
   <si>
+    <t>用地信息审核列表</t>
+  </si>
+  <si>
     <t>//*[@id="app"]/div/section/div/ul/li[16]/ul/li[3]/span</t>
   </si>
   <si>
-    <t>用地信息审核列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[1]/div/button/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[1]/div/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/div/ul/li[16]/ul/li[3]/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[4]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[16]/div/div[1]</t>
+  </si>
+  <si>
+    <t>通过填报用地编号搜索企业</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[2]/div[1]/div/div/input</t>
   </si>
   <si>
     <t>2476-2019-YD01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过填报用地编号搜索企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[4]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[16]/div/div[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div[2]/div[1]/div/button/span</t>
   </si>
   <si>
     <t>潘利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[1]/div/ul/li[1]/div/div[2]/div/button/span/span</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-2848-1</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[5]/div[1]/div[5]/div[2]/table/tbody/tr/td[20]/div/div[1]/button/span</t>
-  </si>
-  <si>
-    <t>台账详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[2]/div[1]/div/inpu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[2]/div[2]/button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用地信息填报记录列表</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[16]/ul/li[4]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[4]/div[1]/div[5]/div[2]/table/tbody/tr[1]/td[12]/div/button/span</t>
+  </si>
+  <si>
+    <t>通过公司名称搜索申报记录信息</t>
+  </si>
+  <si>
+    <t>成都市红牛实业有限责任公司</t>
+  </si>
+  <si>
+    <t>雷常海</t>
+  </si>
+  <si>
+    <t>申报事项配置</t>
+  </si>
+  <si>
+    <t>新增新报事项配置</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[16]/ul/li[5]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div/div[3]/div[1]/div[1]/button</t>
+  </si>
+  <si>
+    <t>编辑申报事项配置</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div/div[3]/div[1]/div[2]/div/div[3]/table/tbody/tr/td[10]/div/button/span</t>
+  </si>
+  <si>
+    <t>审阅流程配置</t>
+  </si>
+  <si>
+    <t>新增部门</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[16]/ul/li[6]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div[3]/div/div[1]/div[2]/button/span</t>
+  </si>
+  <si>
+    <t>编辑已有部门</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div[3]/div/div[2]/div[3]/table/tbody/tr[3]/td[5]/div/button[1]/span</t>
+  </si>
+  <si>
+    <t>人才数据管理</t>
+  </si>
+  <si>
+    <t>人才数据列表</t>
+  </si>
+  <si>
+    <t>搜索人才信息</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[17]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[17]/ul/li/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[7]/button[1]/span</t>
+  </si>
+  <si>
+    <t>李慧琴</t>
+  </si>
+  <si>
+    <t>新增人才信息</t>
+  </si>
+  <si>
+    <t>确认并提交</t>
+  </si>
+  <si>
+    <t>编辑人才信息</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[3]/div[1]/div[3]/table/tbody/tr[1]/td[13]/div/button[1]/span</t>
+  </si>
+  <si>
+    <t>查看人才信息</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[3]/div[1]/div[3]/table/tbody/tr[1]/td[13]/div/button[2]/span</t>
+  </si>
+  <si>
+    <t>人才详情</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>企业标签配置</t>
+  </si>
+  <si>
+    <t>新增企业标签</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[18]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[18]/ul/li[1]/span</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>编辑企业标签</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[3]/div[2]/div[2]/div[3]/table/tbody/tr/td[5]/div/button/span</t>
+  </si>
+  <si>
+    <t>政策类型管理</t>
+  </si>
+  <si>
+    <t>新增政策类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[18]/ul/li[2]/span</t>
+  </si>
+  <si>
+    <t>政策类型名称</t>
+  </si>
+  <si>
+    <t>编辑政策类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[3]/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[5]/div/button/span</t>
+  </si>
+  <si>
+    <t>项目分类管理</t>
+  </si>
+  <si>
+    <t>新增项目分类管理</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[18]/ul/li[3]/span</t>
+  </si>
+  <si>
+    <t>项目分类名称</t>
+  </si>
+  <si>
+    <t>编辑项目分类管理</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[3]/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[5]/div/button/span</t>
+  </si>
+  <si>
+    <t>首页飘窗内容配置</t>
+  </si>
+  <si>
+    <t>新增首页飘窗内容</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[18]/ul/li[4]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div[3]/div[2]/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>编辑首页飘窗内容</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div/div[3]/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[7]/div/button[1]/span</t>
+  </si>
+  <si>
+    <t>中介服务类型配置</t>
+  </si>
+  <si>
+    <t>新增中介服务类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[18]/ul/li[6]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[1]/div/div[1]/button/span</t>
+  </si>
+  <si>
+    <t>一级服务分类</t>
+  </si>
+  <si>
+    <t>新增二级中介服务类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[1]/div/div[2]/div[1]/div[1]/div[1]/span[2]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[2]/div[1]/div[1]/div/div/button/span</t>
+  </si>
+  <si>
+    <t>二级服务分类</t>
+  </si>
+  <si>
+    <t>企业账号类型设置</t>
+  </si>
+  <si>
+    <t>查看数据权限简介</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[18]/ul/li[8]/span</t>
+  </si>
+  <si>
+    <t>该文案将展示在客户端</t>
+  </si>
+  <si>
+    <t>新增类型</t>
+  </si>
+  <si>
+    <t>账号类型</t>
+  </si>
+  <si>
+    <t>编辑已有类型</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[1]/div[3]/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div/button/span</t>
+  </si>
+  <si>
+    <t>人员管理</t>
+  </si>
+  <si>
+    <t>部门管理</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[19]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[19]/ul/li[1]/span</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>编辑部门</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[1]/div/div[2]/div[1]/div/div[1]/div/span[2]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[2]/div[1]/div[1]/div/button/span</t>
+  </si>
+  <si>
+    <t>新增员工</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[2]/div[3]/div/div/button[1]/span</t>
+  </si>
+  <si>
+    <t>从已有员工选择</t>
+  </si>
+  <si>
+    <t>修改员工权限</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div/div[2]/div[4]/div/div[3]/table/tbody/tr[2]/td[7]/div/div/button/span</t>
+  </si>
+  <si>
+    <t>员工当前审核权限</t>
+  </si>
+  <si>
+    <t>成员管理</t>
+  </si>
+  <si>
+    <t>新建员工</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[19]/ul/li[2]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[1]/div[2]/button[1]/span</t>
+  </si>
+  <si>
+    <t>员工姓名</t>
+  </si>
+  <si>
+    <t>编辑员工</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div/div[3]/div[2]/div/div[3]/table/tbody/tr[1]/td[7]/div/button[2]/span</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>编辑个人信息</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[20]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/div/ul/li[20]/ul/li/span</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/section/section/main/div/div[2]/div/div[3]/div/div[2]/div[1]/div[1]/div/button/span</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,32 +1415,174 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1252,12 +1592,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1276,39 +1796,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1566,32 +2372,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94:C115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="12" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1607,3727 +2413,5025 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+      <c r="B2"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="B3"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4"/>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3">
         <v>44136</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3">
         <v>44166</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:15">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
       <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
       <c r="M15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:12">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
         <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
         <v>87</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" t="s">
-        <v>14</v>
-      </c>
       <c r="M19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" t="s">
-        <v>8</v>
-      </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="L22" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M23" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="P23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>319</v>
+        <v>12</v>
+      </c>
+      <c r="L24" t="s">
+        <v>116</v>
       </c>
       <c r="M24" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="N24" t="s">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="P24" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>119</v>
+      </c>
+      <c r="R24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="L25" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M25" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="N25" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="R25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="S25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" t="s">
-        <v>105</v>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M28" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="N28" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="Q28" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="R28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" t="s">
-        <v>142</v>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" t="s">
-        <v>142</v>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="K31" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="M31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" t="s">
-        <v>142</v>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I32" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="K32" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="M32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" t="s">
-        <v>142</v>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
         <v>155</v>
       </c>
-      <c r="E33" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" t="s">
-        <v>8</v>
-      </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L33" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="O33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" t="s">
-        <v>142</v>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
         <v>155</v>
       </c>
-      <c r="E34" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
       <c r="I34" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="K34" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C35" t="s">
-        <v>142</v>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
         <v>155</v>
       </c>
-      <c r="E35" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>145</v>
-      </c>
-      <c r="H35" t="s">
-        <v>8</v>
-      </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C36" t="s">
-        <v>142</v>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I36" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="K36" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="L36" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="M36" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="N36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="O36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="K37" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="L37" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="M37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C38" t="s">
-        <v>142</v>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I38" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="J38" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="K38" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="L38" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="M38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C39" t="s">
-        <v>142</v>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="G39" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="K39" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" t="s">
-        <v>142</v>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="K40" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="L40" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="M40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" t="s">
-        <v>142</v>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I41" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="L41" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="M41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C42" t="s">
-        <v>183</v>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="I42" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="J42" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="L42" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M42" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="N42" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C43" t="s">
-        <v>183</v>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="I43" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="K43" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="L43" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" t="s">
-        <v>183</v>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="I44" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="J44" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="K44" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="L44" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="M44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" t="s">
-        <v>183</v>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="J45" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="K45" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="L45" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="M45" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C46" t="s">
-        <v>183</v>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
         <v>197</v>
       </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" t="s">
-        <v>186</v>
-      </c>
-      <c r="H46" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" t="s">
-        <v>187</v>
-      </c>
-      <c r="J46" t="s">
-        <v>8</v>
-      </c>
       <c r="K46" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="L46" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="M46" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="N46" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C47" t="s">
-        <v>200</v>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="G47" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="I47" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="L47" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M47" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="N47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="O47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" t="s">
-        <v>200</v>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="G48" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="I48" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="J48" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K48" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" t="s">
-        <v>200</v>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="G49" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="I49" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="J49" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="M49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" t="s">
-        <v>211</v>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="G50" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="I50" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="J50" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="K50" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="M50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C51" t="s">
-        <v>211</v>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="G51" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="I51" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="J51" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="K51" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="L51" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M51" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="N51" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="O51" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" t="s">
-        <v>211</v>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E52" t="s">
         <v>222</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="I52" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="J52" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="K52" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="L52" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="M52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+        <v>16</v>
+      </c>
+      <c r="N52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:19">
+      <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P53" s="6" t="s">
+      <c r="I53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Q53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C54" t="s">
-        <v>211</v>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>224</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" t="s">
+        <v>239</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
         <v>228</v>
       </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" t="s">
-        <v>214</v>
-      </c>
-      <c r="H54" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" t="s">
-        <v>229</v>
-      </c>
-      <c r="J54" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" t="s">
-        <v>218</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
+        <v>240</v>
+      </c>
+      <c r="N54" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" t="s">
         <v>230</v>
       </c>
-      <c r="M54" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" t="s">
-        <v>220</v>
-      </c>
-      <c r="O54" t="s">
-        <v>14</v>
-      </c>
       <c r="P54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>55</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C55" t="s">
-        <v>211</v>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="G55" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="I55" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="J55" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="K55" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="L55" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="M55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C56" t="s">
-        <v>211</v>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="G56" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="I56" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="K56" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="M56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>57</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C57" t="s">
-        <v>211</v>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="I57" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="J57" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="K57" t="s">
-        <v>239</v>
-      </c>
-      <c r="M57" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="L57" t="s">
+        <v>249</v>
       </c>
       <c r="N57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="O57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>58</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C58" t="s">
-        <v>241</v>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I58" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="K58" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="L58" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="N58" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="O58" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="P58" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>59</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C59" t="s">
-        <v>241</v>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="G59" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I59" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="K59" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="M59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>60</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" t="s">
-        <v>241</v>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I60" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="J60" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="K60" t="s">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="L60" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="M60" t="s">
-        <v>239</v>
+        <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O60" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>61</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" t="s">
-        <v>241</v>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I61" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="J61" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="K61" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="M61" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>62</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" t="s">
-        <v>241</v>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
+      </c>
+      <c r="E62" t="s">
+        <v>265</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="I62" t="s">
+        <v>10</v>
       </c>
       <c r="J62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>63</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C63" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>260</v>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" t="s">
+        <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="G63" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H63" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I63" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>64</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>263</v>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" t="s">
+        <v>271</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="G64" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I64" t="s">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="J64" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="K64" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>65</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C65" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>266</v>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
       <c r="G65" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I65" t="s">
-        <v>267</v>
+        <v>10</v>
       </c>
       <c r="J65" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>295</v>
+        <v>275</v>
+      </c>
+      <c r="K65" t="s">
+        <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>268</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
+      </c>
+      <c r="M65" t="s">
+        <v>277</v>
       </c>
       <c r="N65" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="O65" t="s">
-        <v>14</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="P65" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66">
         <v>66</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C66" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>272</v>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I66" t="s">
-        <v>267</v>
+        <v>10</v>
       </c>
       <c r="J66" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="K66" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="L66" t="s">
-        <v>14</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="M66" t="s">
+        <v>281</v>
+      </c>
+      <c r="N66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" t="s">
+        <v>278</v>
+      </c>
+      <c r="P66" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>282</v>
+      </c>
+      <c r="R66" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>67</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C67" t="s">
-        <v>241</v>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>275</v>
+        <v>251</v>
+      </c>
+      <c r="E67" t="s">
+        <v>251</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I67" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>269</v>
+        <v>284</v>
+      </c>
+      <c r="K67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" t="s">
+        <v>285</v>
+      </c>
+      <c r="M67" t="s">
+        <v>286</v>
       </c>
       <c r="N67" t="s">
-        <v>279</v>
+        <v>10</v>
       </c>
       <c r="O67" t="s">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" spans="1:17">
       <c r="A68">
         <v>68</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" t="s">
         <v>289</v>
       </c>
-      <c r="C68" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F68" t="s">
-        <v>8</v>
-      </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I68" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="J68" t="s">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="K68" t="s">
-        <v>282</v>
+        <v>10</v>
       </c>
       <c r="L68" t="s">
-        <v>14</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="P68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="M68" t="s">
+        <v>16</v>
+      </c>
+      <c r="N68" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q68" s="8"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>69</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C69" t="s">
-        <v>241</v>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>283</v>
+        <v>251</v>
+      </c>
+      <c r="E69" t="s">
+        <v>251</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="G69" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="I69" t="s">
-        <v>276</v>
+        <v>10</v>
       </c>
       <c r="J69" t="s">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="K69" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="L69" t="s">
-        <v>14</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="M69" t="s">
+        <v>16</v>
+      </c>
+      <c r="N69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>70</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" t="s">
-        <v>241</v>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>286</v>
+        <v>251</v>
+      </c>
+      <c r="E70" t="s">
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>294</v>
       </c>
       <c r="G70" t="s">
-        <v>244</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="H70" t="s">
+        <v>254</v>
       </c>
       <c r="I70" t="s">
-        <v>287</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>288</v>
+        <v>10</v>
+      </c>
+      <c r="J70" t="s">
+        <v>295</v>
+      </c>
+      <c r="K70" t="s">
+        <v>10</v>
       </c>
       <c r="L70" t="s">
-        <v>14</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="M70" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>71</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>269</v>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" t="s">
+        <v>298</v>
+      </c>
+      <c r="F71" t="s">
+        <v>299</v>
       </c>
       <c r="G71" t="s">
-        <v>293</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>300</v>
       </c>
       <c r="I71" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="J71" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="K71" t="s">
-        <v>296</v>
-      </c>
-      <c r="L71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" t="s">
+        <v>302</v>
+      </c>
+      <c r="M71" t="s">
+        <v>303</v>
+      </c>
+      <c r="N71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" t="s">
+        <v>304</v>
+      </c>
+      <c r="P71" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q71" t="s">
         <v>305</v>
       </c>
-      <c r="M71" t="s">
-        <v>8</v>
-      </c>
-      <c r="N71" t="s">
-        <v>298</v>
-      </c>
-      <c r="O71" t="s">
-        <v>14</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>72</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" t="s">
+        <v>298</v>
+      </c>
+      <c r="F72" t="s">
+        <v>306</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
         <v>300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G72" t="s">
-        <v>293</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="I72" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="J72" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="K72" t="s">
+        <v>10</v>
       </c>
       <c r="L72" t="s">
-        <v>14</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="M72" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73">
         <v>73</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>269</v>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" t="s">
+        <v>298</v>
+      </c>
+      <c r="F73" t="s">
+        <v>309</v>
       </c>
       <c r="G73" t="s">
-        <v>293</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>300</v>
       </c>
       <c r="I73" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="J73" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="K73" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="L73" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M73" t="s">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="N73" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="O73" t="s">
-        <v>8</v>
-      </c>
-      <c r="P73" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="P73" t="s">
+        <v>10</v>
+      </c>
       <c r="Q73" t="s">
-        <v>14</v>
-      </c>
-      <c r="R73" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="R73" t="s">
+        <v>16</v>
+      </c>
+      <c r="S73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74">
         <v>74</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>269</v>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" t="s">
+        <v>311</v>
       </c>
       <c r="G74" t="s">
-        <v>293</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>300</v>
       </c>
       <c r="I74" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="J74" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="K74" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="L74" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M74" t="s">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="N74" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="O74" t="s">
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="P74" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="Q74" t="s">
-        <v>14</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="R74" t="s">
+        <v>16</v>
+      </c>
+      <c r="S74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75">
         <v>75</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>269</v>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" t="s">
+        <v>298</v>
+      </c>
+      <c r="F75" t="s">
+        <v>311</v>
       </c>
       <c r="G75" t="s">
-        <v>293</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>300</v>
       </c>
       <c r="I75" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="J75" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="K75" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="L75" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M75" t="s">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="N75" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="O75" t="s">
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="P75" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="Q75" t="s">
-        <v>14</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="R75" t="s">
+        <v>16</v>
+      </c>
+      <c r="S75" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76">
         <v>76</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>269</v>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>297</v>
+      </c>
+      <c r="E76" t="s">
+        <v>316</v>
+      </c>
+      <c r="F76" t="s">
+        <v>317</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>300</v>
       </c>
       <c r="I76" t="s">
-        <v>314</v>
+        <v>10</v>
       </c>
       <c r="J76" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>269</v>
+        <v>318</v>
+      </c>
+      <c r="K76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" t="s">
+        <v>319</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="N76" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" t="s">
+        <v>321</v>
       </c>
       <c r="P76" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" t="s">
         <v>322</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R76" t="s">
+        <v>16</v>
+      </c>
+      <c r="S76" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>77</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>269</v>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>297</v>
+      </c>
+      <c r="E77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F77" t="s">
+        <v>325</v>
       </c>
       <c r="G77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>269</v>
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>300</v>
       </c>
       <c r="I77" t="s">
-        <v>317</v>
+        <v>10</v>
       </c>
       <c r="J77" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="K77" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="M77" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>78</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" t="s">
         <v>329</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>269</v>
+      <c r="F78" t="s">
+        <v>330</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>331</v>
       </c>
       <c r="I78" t="s">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="J78" t="s">
-        <v>8</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="K78" t="s">
+        <v>10</v>
       </c>
       <c r="L78" t="s">
-        <v>14</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="M78" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>79</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
         <v>328</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="E79" t="s">
         <v>329</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>269</v>
+      <c r="F79" t="s">
+        <v>335</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>331</v>
       </c>
       <c r="I79" t="s">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="J79" t="s">
-        <v>8</v>
+        <v>332</v>
       </c>
       <c r="K79" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="L79" t="s">
-        <v>14</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="M79" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>80</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" t="s">
         <v>329</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>269</v>
+      <c r="F80" t="s">
+        <v>338</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>331</v>
       </c>
       <c r="I80" t="s">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="J80" t="s">
-        <v>8</v>
+        <v>332</v>
       </c>
       <c r="K80" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="L80" t="s">
-        <v>14</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="M80" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>81</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81" t="s">
         <v>329</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>269</v>
+      <c r="F81" t="s">
+        <v>340</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>331</v>
       </c>
       <c r="I81" t="s">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="J81" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="K81" t="s">
-        <v>339</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>347</v>
+        <v>12</v>
+      </c>
+      <c r="L81" t="s">
+        <v>341</v>
+      </c>
+      <c r="M81" t="s">
+        <v>342</v>
+      </c>
+      <c r="N81" t="s">
+        <v>10</v>
       </c>
       <c r="O81" t="s">
-        <v>14</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="P81" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>82</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>269</v>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>328</v>
+      </c>
+      <c r="E82" t="s">
+        <v>344</v>
+      </c>
+      <c r="F82" t="s">
+        <v>340</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>331</v>
       </c>
       <c r="I82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>345</v>
+      </c>
+      <c r="K82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" t="s">
+        <v>346</v>
+      </c>
+      <c r="M82" t="s">
         <v>342</v>
       </c>
-      <c r="J82" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="N82" t="s">
-        <v>346</v>
+        <v>10</v>
       </c>
       <c r="O82" t="s">
-        <v>14</v>
-      </c>
-      <c r="P82" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="P82" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>83</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>269</v>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" t="s">
+        <v>344</v>
+      </c>
+      <c r="F83" t="s">
+        <v>338</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>331</v>
       </c>
       <c r="I83" t="s">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="J83" t="s">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="K83" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" t="s">
         <v>348</v>
       </c>
-      <c r="L83" t="s">
-        <v>14</v>
-      </c>
       <c r="M83" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" ht="17.25" customHeight="1" spans="1:14">
       <c r="A84">
         <v>84</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>328</v>
+      </c>
+      <c r="E84" t="s">
+        <v>350</v>
+      </c>
+      <c r="F84" t="s">
+        <v>338</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>331</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
         <v>351</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="J84" t="s">
-        <v>8</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>358</v>
+      <c r="K84" t="s">
+        <v>10</v>
       </c>
       <c r="L84" t="s">
-        <v>14</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="M84" t="s">
+        <v>16</v>
+      </c>
+      <c r="N84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>85</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" t="s">
+        <v>350</v>
+      </c>
+      <c r="F85" t="s">
+        <v>353</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>331</v>
+      </c>
+      <c r="I85" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" t="s">
         <v>351</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="K85" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" t="s">
+        <v>354</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="N85" t="s">
+        <v>10</v>
+      </c>
+      <c r="O85" t="s">
+        <v>356</v>
+      </c>
+      <c r="P85" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q85" t="s">
         <v>357</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I85" t="s">
-        <v>350</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="K85" s="3" t="s">
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" t="s">
+        <v>358</v>
+      </c>
+      <c r="F86" t="s">
+        <v>338</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>331</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" t="s">
+        <v>359</v>
+      </c>
+      <c r="K86" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" t="s">
+        <v>360</v>
+      </c>
+      <c r="M86" t="s">
+        <v>16</v>
+      </c>
+      <c r="N86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87" t="s">
+        <v>358</v>
+      </c>
+      <c r="F87" t="s">
+        <v>361</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>331</v>
+      </c>
+      <c r="I87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" t="s">
+        <v>359</v>
+      </c>
+      <c r="K87" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" t="s">
         <v>354</v>
       </c>
-      <c r="L85" s="11" t="s">
+      <c r="M87" t="s">
+        <v>362</v>
+      </c>
+      <c r="N87" t="s">
+        <v>10</v>
+      </c>
+      <c r="O87" t="s">
         <v>356</v>
       </c>
-      <c r="M85" t="s">
-        <v>8</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="O85" t="s">
-        <v>14</v>
-      </c>
-      <c r="P85" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K90" s="3"/>
+      <c r="P87" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" t="s">
+        <v>365</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>331</v>
+      </c>
+      <c r="I88" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" t="s">
+        <v>366</v>
+      </c>
+      <c r="K88" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" t="s">
+        <v>367</v>
+      </c>
+      <c r="M88" t="s">
+        <v>16</v>
+      </c>
+      <c r="N88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>328</v>
+      </c>
+      <c r="E89" t="s">
+        <v>364</v>
+      </c>
+      <c r="F89" t="s">
+        <v>368</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>331</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" t="s">
+        <v>366</v>
+      </c>
+      <c r="K89" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" t="s">
+        <v>369</v>
+      </c>
+      <c r="M89" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>328</v>
+      </c>
+      <c r="E90" t="s">
+        <v>370</v>
+      </c>
+      <c r="F90" t="s">
+        <v>371</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>331</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" t="s">
+        <v>372</v>
+      </c>
+      <c r="K90" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" t="s">
+        <v>373</v>
+      </c>
+      <c r="M90" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>328</v>
+      </c>
+      <c r="E91" t="s">
+        <v>370</v>
+      </c>
+      <c r="F91" t="s">
+        <v>374</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>331</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" t="s">
+        <v>372</v>
+      </c>
+      <c r="K91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" t="s">
+        <v>375</v>
+      </c>
+      <c r="M91" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>376</v>
+      </c>
+      <c r="E92" t="s">
+        <v>377</v>
+      </c>
+      <c r="F92" t="s">
+        <v>378</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>379</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" t="s">
+        <v>380</v>
+      </c>
+      <c r="K92" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92" t="s">
+        <v>107</v>
+      </c>
+      <c r="M92">
+        <v>18981993272</v>
+      </c>
+      <c r="N92" t="s">
+        <v>10</v>
+      </c>
+      <c r="O92" t="s">
+        <v>381</v>
+      </c>
+      <c r="P92" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" t="s">
+        <v>377</v>
+      </c>
+      <c r="F93" t="s">
+        <v>383</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>379</v>
+      </c>
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" t="s">
+        <v>380</v>
+      </c>
+      <c r="K93" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" t="s">
+        <v>103</v>
+      </c>
+      <c r="M93" t="s">
+        <v>16</v>
+      </c>
+      <c r="N93" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>376</v>
+      </c>
+      <c r="E94" t="s">
+        <v>377</v>
+      </c>
+      <c r="F94" t="s">
+        <v>385</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>379</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" t="s">
+        <v>380</v>
+      </c>
+      <c r="K94" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" t="s">
+        <v>386</v>
+      </c>
+      <c r="M94" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>376</v>
+      </c>
+      <c r="E95" t="s">
+        <v>377</v>
+      </c>
+      <c r="F95" t="s">
+        <v>387</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>379</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" t="s">
+        <v>380</v>
+      </c>
+      <c r="K95" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" t="s">
+        <v>388</v>
+      </c>
+      <c r="M95" t="s">
+        <v>16</v>
+      </c>
+      <c r="N95" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>390</v>
+      </c>
+      <c r="E96" t="s">
+        <v>391</v>
+      </c>
+      <c r="F96" t="s">
+        <v>392</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>393</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" t="s">
+        <v>394</v>
+      </c>
+      <c r="K96" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" t="s">
+        <v>217</v>
+      </c>
+      <c r="M96" t="s">
+        <v>16</v>
+      </c>
+      <c r="N96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>390</v>
+      </c>
+      <c r="E97" t="s">
+        <v>391</v>
+      </c>
+      <c r="F97" t="s">
+        <v>396</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>393</v>
+      </c>
+      <c r="I97" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" t="s">
+        <v>394</v>
+      </c>
+      <c r="K97" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" t="s">
+        <v>397</v>
+      </c>
+      <c r="M97" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>390</v>
+      </c>
+      <c r="E98" t="s">
+        <v>398</v>
+      </c>
+      <c r="F98" t="s">
+        <v>399</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>393</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+      <c r="J98" t="s">
+        <v>400</v>
+      </c>
+      <c r="K98" t="s">
+        <v>10</v>
+      </c>
+      <c r="L98" t="s">
+        <v>217</v>
+      </c>
+      <c r="M98" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>390</v>
+      </c>
+      <c r="E99" t="s">
+        <v>398</v>
+      </c>
+      <c r="F99" t="s">
+        <v>402</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>393</v>
+      </c>
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+      <c r="J99" t="s">
+        <v>400</v>
+      </c>
+      <c r="K99" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" t="s">
+        <v>403</v>
+      </c>
+      <c r="M99" t="s">
+        <v>16</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>390</v>
+      </c>
+      <c r="E100" t="s">
+        <v>404</v>
+      </c>
+      <c r="F100" t="s">
+        <v>405</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>393</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" t="s">
+        <v>406</v>
+      </c>
+      <c r="K100" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" t="s">
+        <v>217</v>
+      </c>
+      <c r="M100" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>390</v>
+      </c>
+      <c r="E101" t="s">
+        <v>404</v>
+      </c>
+      <c r="F101" t="s">
+        <v>408</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>393</v>
+      </c>
+      <c r="I101" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" t="s">
+        <v>406</v>
+      </c>
+      <c r="K101" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" t="s">
+        <v>409</v>
+      </c>
+      <c r="M101" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>390</v>
+      </c>
+      <c r="E102" t="s">
+        <v>410</v>
+      </c>
+      <c r="F102" t="s">
+        <v>411</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>393</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" t="s">
+        <v>412</v>
+      </c>
+      <c r="K102" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" t="s">
+        <v>413</v>
+      </c>
+      <c r="M102" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>390</v>
+      </c>
+      <c r="E103" t="s">
+        <v>410</v>
+      </c>
+      <c r="F103" t="s">
+        <v>414</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>393</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+      <c r="J103" t="s">
+        <v>412</v>
+      </c>
+      <c r="K103" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" t="s">
+        <v>415</v>
+      </c>
+      <c r="M103" t="s">
+        <v>16</v>
+      </c>
+      <c r="N103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>390</v>
+      </c>
+      <c r="E104" t="s">
+        <v>416</v>
+      </c>
+      <c r="F104" t="s">
+        <v>417</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>393</v>
+      </c>
+      <c r="I104" t="s">
+        <v>10</v>
+      </c>
+      <c r="J104" t="s">
+        <v>418</v>
+      </c>
+      <c r="K104" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" t="s">
+        <v>419</v>
+      </c>
+      <c r="M104" t="s">
+        <v>16</v>
+      </c>
+      <c r="N104" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>390</v>
+      </c>
+      <c r="E105" t="s">
+        <v>416</v>
+      </c>
+      <c r="F105" t="s">
+        <v>421</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>393</v>
+      </c>
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J105" t="s">
+        <v>418</v>
+      </c>
+      <c r="K105" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" t="s">
+        <v>422</v>
+      </c>
+      <c r="M105" t="s">
+        <v>10</v>
+      </c>
+      <c r="N105" t="s">
+        <v>423</v>
+      </c>
+      <c r="O105" t="s">
+        <v>16</v>
+      </c>
+      <c r="P105" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>390</v>
+      </c>
+      <c r="E106" t="s">
+        <v>425</v>
+      </c>
+      <c r="F106" t="s">
+        <v>426</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>393</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J106" t="s">
+        <v>427</v>
+      </c>
+      <c r="K106" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" t="s">
+        <v>261</v>
+      </c>
+      <c r="M106" t="s">
+        <v>16</v>
+      </c>
+      <c r="N106" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>390</v>
+      </c>
+      <c r="E107" t="s">
+        <v>425</v>
+      </c>
+      <c r="F107" t="s">
+        <v>429</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>393</v>
+      </c>
+      <c r="I107" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" t="s">
+        <v>427</v>
+      </c>
+      <c r="K107" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" t="s">
+        <v>226</v>
+      </c>
+      <c r="M107" t="s">
+        <v>16</v>
+      </c>
+      <c r="N107" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>390</v>
+      </c>
+      <c r="E108" t="s">
+        <v>425</v>
+      </c>
+      <c r="F108" t="s">
+        <v>431</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>393</v>
+      </c>
+      <c r="I108" t="s">
+        <v>10</v>
+      </c>
+      <c r="J108" t="s">
+        <v>427</v>
+      </c>
+      <c r="K108" t="s">
+        <v>10</v>
+      </c>
+      <c r="L108" t="s">
+        <v>432</v>
+      </c>
+      <c r="M108" t="s">
+        <v>16</v>
+      </c>
+      <c r="N108" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>433</v>
+      </c>
+      <c r="E109" t="s">
+        <v>434</v>
+      </c>
+      <c r="F109" t="s">
+        <v>371</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>435</v>
+      </c>
+      <c r="I109" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109" t="s">
+        <v>436</v>
+      </c>
+      <c r="K109" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" t="s">
+        <v>419</v>
+      </c>
+      <c r="M109" t="s">
+        <v>16</v>
+      </c>
+      <c r="N109" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>433</v>
+      </c>
+      <c r="E110" t="s">
+        <v>434</v>
+      </c>
+      <c r="F110" t="s">
+        <v>438</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>435</v>
+      </c>
+      <c r="I110" t="s">
+        <v>10</v>
+      </c>
+      <c r="J110" t="s">
+        <v>436</v>
+      </c>
+      <c r="K110" t="s">
+        <v>10</v>
+      </c>
+      <c r="L110" t="s">
+        <v>439</v>
+      </c>
+      <c r="M110" t="s">
+        <v>10</v>
+      </c>
+      <c r="N110" t="s">
+        <v>440</v>
+      </c>
+      <c r="O110" t="s">
+        <v>16</v>
+      </c>
+      <c r="P110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>433</v>
+      </c>
+      <c r="E111" t="s">
+        <v>434</v>
+      </c>
+      <c r="F111" t="s">
+        <v>441</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" t="s">
+        <v>435</v>
+      </c>
+      <c r="I111" t="s">
+        <v>10</v>
+      </c>
+      <c r="J111" t="s">
+        <v>436</v>
+      </c>
+      <c r="K111" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" t="s">
+        <v>439</v>
+      </c>
+      <c r="M111" t="s">
+        <v>10</v>
+      </c>
+      <c r="N111" t="s">
+        <v>442</v>
+      </c>
+      <c r="O111" t="s">
+        <v>16</v>
+      </c>
+      <c r="P111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>433</v>
+      </c>
+      <c r="E112" t="s">
+        <v>434</v>
+      </c>
+      <c r="F112" t="s">
+        <v>444</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>435</v>
+      </c>
+      <c r="I112" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112" t="s">
+        <v>436</v>
+      </c>
+      <c r="K112" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" t="s">
+        <v>439</v>
+      </c>
+      <c r="M112" t="s">
+        <v>10</v>
+      </c>
+      <c r="N112" t="s">
+        <v>445</v>
+      </c>
+      <c r="O112" t="s">
+        <v>16</v>
+      </c>
+      <c r="P112" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>433</v>
+      </c>
+      <c r="E113" t="s">
+        <v>447</v>
+      </c>
+      <c r="F113" t="s">
+        <v>448</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>435</v>
+      </c>
+      <c r="I113" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113" t="s">
+        <v>449</v>
+      </c>
+      <c r="K113" t="s">
+        <v>10</v>
+      </c>
+      <c r="L113" t="s">
+        <v>450</v>
+      </c>
+      <c r="M113" t="s">
+        <v>16</v>
+      </c>
+      <c r="N113" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>433</v>
+      </c>
+      <c r="E114" t="s">
+        <v>447</v>
+      </c>
+      <c r="F114" t="s">
+        <v>452</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>435</v>
+      </c>
+      <c r="I114" t="s">
+        <v>10</v>
+      </c>
+      <c r="J114" t="s">
+        <v>449</v>
+      </c>
+      <c r="K114" t="s">
+        <v>10</v>
+      </c>
+      <c r="L114" t="s">
+        <v>453</v>
+      </c>
+      <c r="M114" t="s">
+        <v>16</v>
+      </c>
+      <c r="N114" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>454</v>
+      </c>
+      <c r="E115" t="s">
+        <v>454</v>
+      </c>
+      <c r="F115" t="s">
+        <v>455</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>456</v>
+      </c>
+      <c r="I115" t="s">
+        <v>10</v>
+      </c>
+      <c r="J115" t="s">
+        <v>457</v>
+      </c>
+      <c r="K115" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" t="s">
+        <v>458</v>
+      </c>
+      <c r="M115" t="s">
+        <v>16</v>
+      </c>
+      <c r="N115" t="s">
+        <v>451</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:S115">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>